--- a/Masterarbeit 4/Rohdaten.xlsx
+++ b/Masterarbeit 4/Rohdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="220" windowWidth="25120" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="25120" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -510,9 +510,6 @@
     <t xml:space="preserve"> Frage 12</t>
   </si>
   <si>
-    <t>Frage1 2</t>
-  </si>
-  <si>
     <t>Frage12</t>
   </si>
   <si>
@@ -587,6 +584,9 @@
   </si>
   <si>
     <t>* Zu viele verschiedene Konnektoren in deklarativem Modell * Zu viele verschiedene Constraints für Aktivitäten in deklarativem Modell * Beides jeweils nicht intuitiv und verständlich * Klare Start- und Endaktivitäten in imperativem Modell* Verzweigungen und Parallelität einfach und eindeutig ablesbar in imperativem Modell</t>
+  </si>
+  <si>
+    <t>Frage 12</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -876,17 +876,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -910,6 +902,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="87">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -6777,20 +6775,20 @@
         <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="18">
         <v>4</v>
       </c>
@@ -6801,7 +6799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="18">
         <v>5</v>
       </c>
@@ -6812,7 +6810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -6823,7 +6821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="18">
         <v>12</v>
       </c>
@@ -6834,7 +6832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="18">
         <v>13</v>
       </c>
@@ -6845,7 +6843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="18">
         <v>16</v>
       </c>
@@ -6856,7 +6854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="18">
         <v>17</v>
       </c>
@@ -6867,7 +6865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="18">
         <v>18</v>
       </c>
@@ -6878,7 +6876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="18">
         <v>19</v>
       </c>
@@ -6889,18 +6887,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="26" customFormat="1" ht="25" customHeight="1">
-      <c r="A12" s="32">
+    <row r="12" spans="1:3" s="23" customFormat="1" ht="25" customHeight="1">
+      <c r="A12" s="29">
         <v>22</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="18">
         <v>23</v>
       </c>
@@ -6911,7 +6909,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="18">
         <v>24</v>
       </c>
@@ -6922,18 +6920,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="26" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="32">
+    <row r="15" spans="1:3" s="23" customFormat="1" ht="27" customHeight="1">
+      <c r="A15" s="29">
         <v>25</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="18">
         <v>26</v>
       </c>
@@ -6944,7 +6942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="18">
         <v>28</v>
       </c>
@@ -6955,7 +6953,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="18">
         <v>29</v>
       </c>
@@ -6967,13 +6965,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-    </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -6988,7 +6986,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="18">
         <v>5</v>
       </c>
@@ -7003,7 +7001,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="18">
         <v>8</v>
       </c>
@@ -7018,7 +7016,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="18">
         <v>10</v>
       </c>
@@ -7033,7 +7031,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="18">
         <v>12</v>
       </c>
@@ -7048,7 +7046,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="18">
         <v>13</v>
       </c>
@@ -7063,7 +7061,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" s="26" customFormat="1" ht="11" customHeight="1">
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="11" customHeight="1">
       <c r="A26" s="18">
         <v>14</v>
       </c>
@@ -7071,14 +7069,14 @@
         <v>8</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="18">
         <v>16</v>
       </c>
@@ -7093,7 +7091,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="18">
         <v>17</v>
       </c>
@@ -7108,7 +7106,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="18">
         <v>19</v>
       </c>
@@ -7123,7 +7121,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="18">
         <v>20</v>
       </c>
@@ -7138,7 +7136,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="18">
         <v>21</v>
       </c>
@@ -7153,7 +7151,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="18">
         <v>23</v>
       </c>
@@ -7168,7 +7166,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="18">
         <v>25</v>
       </c>
@@ -7183,7 +7181,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="18">
         <v>26</v>
       </c>
@@ -7198,7 +7196,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:7" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="18">
         <v>28</v>
       </c>
@@ -7245,20 +7243,20 @@
         <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="18">
         <v>4</v>
       </c>
@@ -7269,18 +7267,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="26" customFormat="1" ht="23" customHeight="1">
-      <c r="A4" s="32">
-        <v>5</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="33" t="s">
+    <row r="4" spans="1:3" s="23" customFormat="1" ht="23" customHeight="1">
+      <c r="A4" s="29">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -7291,7 +7289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="18">
         <v>12</v>
       </c>
@@ -7302,18 +7300,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="26" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="32">
+    <row r="7" spans="1:3" s="23" customFormat="1" ht="27" customHeight="1">
+      <c r="A7" s="29">
         <v>13</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="18">
         <v>16</v>
       </c>
@@ -7324,7 +7322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="18">
         <v>17</v>
       </c>
@@ -7335,7 +7333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="18">
         <v>18</v>
       </c>
@@ -7346,7 +7344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="18">
         <v>19</v>
       </c>
@@ -7357,18 +7355,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="26" customFormat="1" ht="25" customHeight="1">
-      <c r="A12" s="32">
+    <row r="12" spans="1:3" s="23" customFormat="1" ht="25" customHeight="1">
+      <c r="A12" s="29">
         <v>22</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="18">
         <v>23</v>
       </c>
@@ -7379,7 +7377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="18">
         <v>24</v>
       </c>
@@ -7390,7 +7388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="18">
         <v>25</v>
       </c>
@@ -7401,18 +7399,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="26" customFormat="1" ht="26" customHeight="1">
-      <c r="A16" s="32">
+    <row r="16" spans="1:3" s="23" customFormat="1" ht="26" customHeight="1">
+      <c r="A16" s="29">
         <v>26</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B16" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="18">
         <v>28</v>
       </c>
@@ -7423,7 +7421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="18">
         <v>29</v>
       </c>
@@ -7435,13 +7433,13 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="10" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-    </row>
-    <row r="20" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -7452,7 +7450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="18">
         <v>5</v>
       </c>
@@ -7463,18 +7461,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="18">
         <v>8</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="C22" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="18">
         <v>10</v>
       </c>
@@ -7485,7 +7483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="18">
         <v>12</v>
       </c>
@@ -7496,7 +7494,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="18">
         <v>13</v>
       </c>
@@ -7507,7 +7505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="26" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="18">
         <v>14</v>
       </c>
@@ -7518,7 +7516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="18">
         <v>16</v>
       </c>
@@ -7529,7 +7527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="18">
         <v>17</v>
       </c>
@@ -7540,7 +7538,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="18">
         <v>19</v>
       </c>
@@ -7551,7 +7549,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="18">
         <v>20</v>
       </c>
@@ -7562,7 +7560,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="18">
         <v>21</v>
       </c>
@@ -7573,18 +7571,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="26" customFormat="1" ht="24" customHeight="1">
-      <c r="A32" s="32">
+    <row r="32" spans="1:3" s="23" customFormat="1" ht="24" customHeight="1">
+      <c r="A32" s="29">
         <v>23</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B32" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="18">
         <v>25</v>
       </c>
@@ -7595,7 +7593,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="18">
         <v>26</v>
       </c>
@@ -7606,7 +7604,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="18">
         <v>28</v>
       </c>
@@ -7650,8 +7648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8963,7 +8961,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8979,7 +8977,7 @@
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:9" s="22" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>130</v>
       </c>
@@ -8987,28 +8985,28 @@
         <v>142</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="28" customFormat="1" ht="12" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>69</v>
       </c>
@@ -9021,7 +9019,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="18">
         <v>4</v>
       </c>
@@ -9050,7 +9048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="18">
         <v>5</v>
       </c>
@@ -9079,7 +9077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -9108,7 +9106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="18">
         <v>12</v>
       </c>
@@ -9137,7 +9135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="18">
         <v>13</v>
       </c>
@@ -9166,7 +9164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="18">
         <v>16</v>
       </c>
@@ -9195,7 +9193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="18">
         <v>17</v>
       </c>
@@ -9224,7 +9222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="18">
         <v>18</v>
       </c>
@@ -9253,7 +9251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="18">
         <v>19</v>
       </c>
@@ -9282,7 +9280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="18">
         <v>22</v>
       </c>
@@ -9311,7 +9309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="18">
         <v>23</v>
       </c>
@@ -9340,7 +9338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="18">
         <v>24</v>
       </c>
@@ -9369,7 +9367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="18">
         <v>25</v>
       </c>
@@ -9398,7 +9396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="18">
         <v>26</v>
       </c>
@@ -9427,7 +9425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="18">
         <v>28</v>
       </c>
@@ -9456,7 +9454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="18">
         <v>29</v>
       </c>
@@ -9485,20 +9483,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="A19" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -9511,7 +9509,7 @@
       <c r="D20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="18" t="s">
@@ -9527,7 +9525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="18">
         <v>5</v>
       </c>
@@ -9556,7 +9554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="18">
         <v>8</v>
       </c>
@@ -9585,7 +9583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="18">
         <v>10</v>
       </c>
@@ -9614,7 +9612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="18">
         <v>12</v>
       </c>
@@ -9643,7 +9641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="18">
         <v>13</v>
       </c>
@@ -9672,7 +9670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="18">
         <v>14</v>
       </c>
@@ -9701,7 +9699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="18">
         <v>16</v>
       </c>
@@ -9730,7 +9728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="18">
         <v>17</v>
       </c>
@@ -9759,7 +9757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="18">
         <v>19</v>
       </c>
@@ -9788,7 +9786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="18">
         <v>20</v>
       </c>
@@ -9817,7 +9815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="18">
         <v>21</v>
       </c>
@@ -9846,7 +9844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="18">
         <v>23</v>
       </c>
@@ -9875,7 +9873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="18">
         <v>25</v>
       </c>
@@ -9904,7 +9902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="18">
         <v>26</v>
       </c>
@@ -9933,7 +9931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="18">
         <v>28</v>
       </c>
@@ -10029,7 +10027,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10050,28 +10048,28 @@
         <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1">
@@ -10087,7 +10085,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="18">
         <v>4</v>
       </c>
@@ -10116,7 +10114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="18">
         <v>5</v>
       </c>
@@ -10145,7 +10143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -10174,7 +10172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="18">
         <v>12</v>
       </c>
@@ -10203,7 +10201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="18">
         <v>13</v>
       </c>
@@ -10232,7 +10230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="18">
         <v>16</v>
       </c>
@@ -10261,7 +10259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="18">
         <v>17</v>
       </c>
@@ -10290,7 +10288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="18">
         <v>18</v>
       </c>
@@ -10319,7 +10317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="18">
         <v>19</v>
       </c>
@@ -10348,7 +10346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="18">
         <v>22</v>
       </c>
@@ -10377,7 +10375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="18">
         <v>23</v>
       </c>
@@ -10406,7 +10404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="18">
         <v>24</v>
       </c>
@@ -10435,7 +10433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="18">
         <v>25</v>
       </c>
@@ -10464,7 +10462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="18">
         <v>26</v>
       </c>
@@ -10493,7 +10491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="18">
         <v>28</v>
       </c>
@@ -10522,7 +10520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="18">
         <v>29</v>
       </c>
@@ -10564,7 +10562,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -10593,7 +10591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="18">
         <v>5</v>
       </c>
@@ -10622,7 +10620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="18">
         <v>8</v>
       </c>
@@ -10651,23 +10649,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="26" customFormat="1" ht="27" customHeight="1">
-      <c r="A23" s="32">
+    <row r="23" spans="1:9" s="23" customFormat="1" ht="23" customHeight="1">
+      <c r="A23" s="29">
         <v>10</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="18" t="s">
+      <c r="B23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="29" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="30" t="s">
@@ -10676,11 +10674,11 @@
       <c r="H23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="I23" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="18">
         <v>12</v>
       </c>
@@ -10709,7 +10707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="18">
         <v>13</v>
       </c>
@@ -10738,7 +10736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="18">
         <v>14</v>
       </c>
@@ -10767,7 +10765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="18">
         <v>16</v>
       </c>
@@ -10796,7 +10794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="18">
         <v>17</v>
       </c>
@@ -10825,7 +10823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="18">
         <v>19</v>
       </c>
@@ -10854,7 +10852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="18">
         <v>20</v>
       </c>
@@ -10883,7 +10881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="18">
         <v>21</v>
       </c>
@@ -10912,7 +10910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="18">
         <v>23</v>
       </c>
@@ -10941,7 +10939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="18">
         <v>25</v>
       </c>
@@ -10970,7 +10968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="18">
         <v>26</v>
       </c>
@@ -10999,7 +10997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="18">
         <v>28</v>
       </c>
@@ -11045,7 +11043,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection sqref="A1:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11054,990 +11052,990 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="18">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="18">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="18">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="18">
         <v>12</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="18">
         <v>13</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="18">
         <v>16</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="18">
         <v>17</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="18">
         <v>18</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="18">
         <v>19</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="18">
         <v>22</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="18">
         <v>23</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="18">
         <v>24</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="18">
         <v>25</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="18">
         <v>26</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="18">
         <v>28</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="18">
         <v>29</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="B18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1">
+      <c r="A19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="18">
         <v>3</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="18">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="18">
         <v>8</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="18">
         <v>10</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="B23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="18">
         <v>12</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="19" t="s">
+      <c r="B24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="H24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="18">
         <v>13</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="19" t="s">
+      <c r="D25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="H25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="18">
         <v>14</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="19" t="s">
+      <c r="B26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="G26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="18">
         <v>16</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="18">
         <v>17</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="18">
         <v>19</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="18">
         <v>20</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="19" t="s">
+      <c r="B30" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="18">
         <v>21</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="18">
         <v>23</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="18">
         <v>25</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="18">
         <v>26</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="18">
         <v>28</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="19" t="s">
+      <c r="D35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="20" customFormat="1" ht="12"/>
+    <row r="36" spans="1:9" s="19" customFormat="1" ht="12"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12055,7 +12053,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12070,986 +12068,986 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="18">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="18">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="18">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="B5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="18">
         <v>12</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="18">
         <v>13</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="B7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="19" t="s">
+      <c r="F7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="18">
         <v>16</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="18">
         <v>17</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="18">
         <v>18</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="D10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="H10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="18">
         <v>19</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="18">
         <v>22</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="18">
         <v>23</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="18">
         <v>24</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="18">
         <v>25</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="B15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="18">
         <v>26</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="18">
         <v>28</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="B17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="18">
         <v>29</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="B18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1">
+      <c r="A19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="18">
         <v>3</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="18">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="18">
         <v>8</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="20" customFormat="1" ht="28" customHeight="1">
-      <c r="A23" s="32">
+      <c r="B22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="33" customFormat="1" ht="23" customHeight="1">
+      <c r="A23" s="29">
         <v>10</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="D23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="18">
         <v>12</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="18">
         <v>13</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="18">
         <v>14</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="18">
         <v>16</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="18">
         <v>17</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="18">
         <v>19</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="18">
         <v>20</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B30" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="18">
         <v>21</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="18">
         <v>23</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="18">
         <v>25</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="18">
         <v>26</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="20" customFormat="1" ht="12" customHeight="1">
+      <c r="B34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="18">
         <v>28</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="19" t="s">
+      <c r="B35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13085,10 +13083,10 @@
         <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="12" customHeight="1">
@@ -13098,7 +13096,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="18">
         <v>4</v>
       </c>
@@ -13109,7 +13107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="18">
         <v>5</v>
       </c>
@@ -13120,7 +13118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -13131,7 +13129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="18">
         <v>12</v>
       </c>
@@ -13142,18 +13140,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="26" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="32">
+    <row r="7" spans="1:3" s="23" customFormat="1" ht="27" customHeight="1">
+      <c r="A7" s="29">
         <v>13</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="18">
         <v>16</v>
       </c>
@@ -13164,7 +13162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="18">
         <v>17</v>
       </c>
@@ -13175,7 +13173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="18">
         <v>18</v>
       </c>
@@ -13186,7 +13184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="18">
         <v>19</v>
       </c>
@@ -13197,18 +13195,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="26" customFormat="1" ht="25" customHeight="1">
-      <c r="A12" s="32">
+    <row r="12" spans="1:3" s="23" customFormat="1" ht="25" customHeight="1">
+      <c r="A12" s="29">
         <v>22</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="18">
         <v>23</v>
       </c>
@@ -13219,7 +13217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="18">
         <v>24</v>
       </c>
@@ -13230,7 +13228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="18">
         <v>25</v>
       </c>
@@ -13241,18 +13239,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="26" customFormat="1" ht="26" customHeight="1">
-      <c r="A16" s="32">
+    <row r="16" spans="1:3" s="23" customFormat="1" ht="26" customHeight="1">
+      <c r="A16" s="29">
         <v>26</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B16" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="18">
         <v>28</v>
       </c>
@@ -13263,7 +13261,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="18">
         <v>29</v>
       </c>
@@ -13281,7 +13279,7 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="20" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -13292,7 +13290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="18">
         <v>5</v>
       </c>
@@ -13303,18 +13301,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="18">
         <v>8</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="C22" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="18">
         <v>10</v>
       </c>
@@ -13325,7 +13323,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="18">
         <v>12</v>
       </c>
@@ -13336,7 +13334,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="18">
         <v>13</v>
       </c>
@@ -13347,7 +13345,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="26" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="18">
         <v>14</v>
       </c>
@@ -13358,7 +13356,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="18">
         <v>16</v>
       </c>
@@ -13369,7 +13367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="18">
         <v>17</v>
       </c>
@@ -13380,7 +13378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="18">
         <v>19</v>
       </c>
@@ -13391,7 +13389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="18">
         <v>20</v>
       </c>
@@ -13402,7 +13400,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="18">
         <v>21</v>
       </c>
@@ -13413,18 +13411,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="26" customFormat="1" ht="24" customHeight="1">
-      <c r="A32" s="32">
+    <row r="32" spans="1:3" s="23" customFormat="1" ht="24" customHeight="1">
+      <c r="A32" s="29">
         <v>23</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B32" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="18">
         <v>25</v>
       </c>
@@ -13435,7 +13433,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="18">
         <v>26</v>
       </c>
@@ -13446,7 +13444,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="18">
         <v>28</v>
       </c>
@@ -13473,8 +13471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13489,20 +13487,20 @@
         <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="18">
         <v>4</v>
       </c>
@@ -13513,7 +13511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="18">
         <v>5</v>
       </c>
@@ -13524,18 +13522,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="26" customFormat="1" ht="25" customHeight="1">
-      <c r="A5" s="32">
-        <v>6</v>
-      </c>
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="1:3" s="23" customFormat="1" ht="25" customHeight="1">
+      <c r="A5" s="29">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="18">
         <v>12</v>
       </c>
@@ -13546,7 +13544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="18">
         <v>13</v>
       </c>
@@ -13557,7 +13555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="18">
         <v>16</v>
       </c>
@@ -13565,10 +13563,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="18">
         <v>17</v>
       </c>
@@ -13579,7 +13577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="18">
         <v>18</v>
       </c>
@@ -13590,7 +13588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="18">
         <v>19</v>
       </c>
@@ -13601,18 +13599,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="26" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="18">
+    <row r="12" spans="1:3" s="23" customFormat="1" ht="24" customHeight="1">
+      <c r="A12" s="29">
         <v>22</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="C12" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="18">
         <v>23</v>
       </c>
@@ -13623,7 +13621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="18">
         <v>24</v>
       </c>
@@ -13634,7 +13632,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="18">
         <v>25</v>
       </c>
@@ -13645,7 +13643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="18">
         <v>26</v>
       </c>
@@ -13656,7 +13654,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="17" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="18">
         <v>28</v>
       </c>
@@ -13667,7 +13665,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="18">
         <v>29</v>
       </c>
@@ -13679,13 +13677,13 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="10" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-    </row>
-    <row r="20" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -13696,7 +13694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="18">
         <v>5</v>
       </c>
@@ -13707,7 +13705,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="18">
         <v>8</v>
       </c>
@@ -13718,7 +13716,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="26" customFormat="1" ht="13" customHeight="1">
+    <row r="23" spans="1:3" s="23" customFormat="1" ht="13" customHeight="1">
       <c r="A23" s="18">
         <v>10</v>
       </c>
@@ -13729,7 +13727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="18">
         <v>12</v>
       </c>
@@ -13740,7 +13738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="18">
         <v>13</v>
       </c>
@@ -13751,7 +13749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="26" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="18">
         <v>14</v>
       </c>
@@ -13762,7 +13760,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="18">
         <v>16</v>
       </c>
@@ -13773,7 +13771,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="18">
         <v>17</v>
       </c>
@@ -13784,7 +13782,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="18">
         <v>19</v>
       </c>
@@ -13795,7 +13793,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="18">
         <v>20</v>
       </c>
@@ -13806,7 +13804,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="18">
         <v>21</v>
       </c>
@@ -13817,7 +13815,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="32" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="18">
         <v>23</v>
       </c>
@@ -13828,7 +13826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="33" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="18">
         <v>25</v>
       </c>
@@ -13839,7 +13837,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="18">
         <v>26</v>
       </c>
@@ -13850,7 +13848,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="18">
         <v>28</v>
       </c>
@@ -13893,20 +13891,20 @@
         <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="18">
         <v>4</v>
       </c>
@@ -13917,7 +13915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="18">
         <v>5</v>
       </c>
@@ -13928,7 +13926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -13939,7 +13937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="18">
         <v>12</v>
       </c>
@@ -13950,7 +13948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="18">
         <v>13</v>
       </c>
@@ -13961,7 +13959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="18">
         <v>16</v>
       </c>
@@ -13972,7 +13970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="18">
         <v>17</v>
       </c>
@@ -13983,7 +13981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="18">
         <v>18</v>
       </c>
@@ -13994,7 +13992,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="18">
         <v>19</v>
       </c>
@@ -14005,18 +14003,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="26" customFormat="1" ht="25" customHeight="1">
-      <c r="A12" s="32">
+    <row r="12" spans="1:3" s="23" customFormat="1" ht="25" customHeight="1">
+      <c r="A12" s="29">
         <v>22</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="18">
         <v>23</v>
       </c>
@@ -14027,7 +14025,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="18">
         <v>24</v>
       </c>
@@ -14038,7 +14036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="18">
         <v>25</v>
       </c>
@@ -14049,7 +14047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="18">
         <v>26</v>
       </c>
@@ -14060,7 +14058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="17" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="18">
         <v>28</v>
       </c>
@@ -14071,7 +14069,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="18">
         <v>29</v>
       </c>
@@ -14083,13 +14081,13 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="10" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-    </row>
-    <row r="20" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -14100,7 +14098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="18">
         <v>5</v>
       </c>
@@ -14111,7 +14109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="18">
         <v>8</v>
       </c>
@@ -14122,7 +14120,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="18">
         <v>10</v>
       </c>
@@ -14133,7 +14131,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="18">
         <v>12</v>
       </c>
@@ -14144,7 +14142,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="18">
         <v>13</v>
       </c>
@@ -14155,18 +14153,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="26" customFormat="1" ht="25" customHeight="1">
-      <c r="A26" s="32">
+    <row r="26" spans="1:3" s="23" customFormat="1" ht="25" customHeight="1">
+      <c r="A26" s="29">
         <v>14</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="18">
         <v>16</v>
       </c>
@@ -14177,7 +14175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="18">
         <v>17</v>
       </c>
@@ -14188,7 +14186,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="18">
         <v>19</v>
       </c>
@@ -14199,7 +14197,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="18">
         <v>20</v>
       </c>
@@ -14210,7 +14208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="18">
         <v>21</v>
       </c>
@@ -14221,7 +14219,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="32" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="18">
         <v>23</v>
       </c>
@@ -14232,7 +14230,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="33" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="18">
         <v>25</v>
       </c>
@@ -14243,7 +14241,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="18">
         <v>26</v>
       </c>
@@ -14254,7 +14252,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:3" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="18">
         <v>28</v>
       </c>

--- a/Masterarbeit 4/Rohdaten.xlsx
+++ b/Masterarbeit 4/Rohdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="25120" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="25120" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -7227,7 +7227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
@@ -7235,7 +7235,7 @@
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="96.6640625" customWidth="1"/>
+    <col min="3" max="3" width="102.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="12" customHeight="1">
@@ -7618,7 +7618,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13067,7 +13067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
@@ -13458,7 +13458,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13471,7 +13471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -13479,7 +13479,7 @@
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="97.6640625" customWidth="1"/>
+    <col min="3" max="3" width="100.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="12" customHeight="1">
@@ -13862,7 +13862,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14266,7 +14266,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Masterarbeit 4/Rohdaten.xlsx
+++ b/Masterarbeit 4/Rohdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="25120" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="25120" windowHeight="14400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -6760,7 +6760,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:B12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7227,7 +7227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
@@ -7235,7 +7235,7 @@
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="102.6640625" customWidth="1"/>
+    <col min="3" max="3" width="112.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="12" customHeight="1">
@@ -7648,13 +7648,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="12" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="12" width="8.5" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8947,7 +8952,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="105" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13067,8 +13072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13458,7 +13463,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13862,7 +13867,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13876,7 +13881,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:B12"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14266,7 +14271,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
